--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{732B84D7-F108-482B-A531-84A6E97BA688}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE65B4-953D-4745-97A9-3B7588A64C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -50,13 +50,6 @@
     </rPh>
     <rPh sb="2" eb="3">
       <t>スウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>単位</t>
-    <rPh sb="0" eb="2">
-      <t>タンイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -458,23 +451,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
-    </sheetView>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="27.5" style="1" customWidth="1"/>
-    <col min="5" max="5" width="16.125" style="2" customWidth="1"/>
+    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>0</v>
@@ -488,11 +479,8 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>4</v>
-      </c>
     </row>
-    <row r="2" spans="1:6" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FDE65B4-953D-4745-97A9-3B7588A64C9A}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D072D-711B-42DA-8C48-237C52EF886B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>メーカー</t>
     <phoneticPr fontId="1"/>
@@ -57,6 +57,49 @@
     <t>倉庫</t>
     <rPh sb="0" eb="2">
       <t>ソウコ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>入出庫種別</t>
+    <rPh sb="0" eb="3">
+      <t>ニュウシュッコ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>シュベツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>単価（入庫単価）</t>
+    <rPh sb="0" eb="2">
+      <t>タンカ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>タンカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終入庫日</t>
+    <rPh sb="0" eb="2">
+      <t>サイシュウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ニュウコ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ビ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>最終出庫日</t>
+    <rPh sb="0" eb="5">
+      <t>サイシュウシュッコビ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -451,19 +494,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="19.75" style="1" customWidth="1"/>
-    <col min="2" max="4" width="30.625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="2" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
+    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
+    <col min="8" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A1" s="4" t="s">
         <v>4</v>
       </c>
@@ -479,8 +528,20 @@
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
+      <c r="F1" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="2" spans="1:5" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
+++ b/src/HanbaiKanri/HanbaiKanri/bin/BaseXls/StockWarehouseList.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21629"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kasah\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAOATO\source\repos\his_vb\src\HanbaiKanri\HanbaiKanri\bin\BaseXls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F9D072D-711B-42DA-8C48-237C52EF886B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E26595CB-62ED-456B-A6CE-80C682B8DB93}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -107,19 +106,22 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.00_ "/>
+  </numFmts>
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="6"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -127,7 +129,7 @@
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="游ゴシック"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
@@ -164,25 +166,28 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="標準" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -493,55 +498,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20561863-5DDA-41FE-8A89-7415294960B9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageLayout" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
   <cols>
-    <col min="1" max="1" width="16.125" style="1" customWidth="1"/>
-    <col min="2" max="3" width="18.875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="17.375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="17.5" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.875" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.625" style="2" customWidth="1"/>
-    <col min="8" max="9" width="9.5" style="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" style="1" customWidth="1"/>
+    <col min="2" max="3" width="18.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" style="1" customWidth="1"/>
+    <col min="7" max="7" width="13.5703125" style="5" customWidth="1"/>
+    <col min="8" max="9" width="9.42578125" style="1" customWidth="1"/>
     <col min="10" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="16.5" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="12.75" thickBot="1">
+      <c r="A1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="3" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="16.5" thickTop="1" x14ac:dyDescent="0.4"/>
+    <row r="2" spans="1:9" ht="12.75" thickTop="1"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
